--- a/src/test/java/resources/Urbuddi_data.xlsx
+++ b/src/test/java/resources/Urbuddi_data.xlsx
@@ -146,22 +146,22 @@
     <t>HR</t>
   </si>
   <si>
-    <t>OW180814</t>
-  </si>
-  <si>
-    <t>OW180828</t>
-  </si>
-  <si>
-    <t>OW180825</t>
-  </si>
-  <si>
-    <t>myfinaltest18@gmail.com</t>
-  </si>
-  <si>
-    <t>myfinaltest19@gmail.com</t>
-  </si>
-  <si>
-    <t>myfinaltest20@gmail.com</t>
+    <t>OW18042</t>
+  </si>
+  <si>
+    <t>OW180822</t>
+  </si>
+  <si>
+    <t>OW180808</t>
+  </si>
+  <si>
+    <t>myfinaltest22@gmail.com</t>
+  </si>
+  <si>
+    <t>myfinaltest23@gmail.com</t>
+  </si>
+  <si>
+    <t>myfinaltest24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/resources/Urbuddi_data.xlsx
+++ b/src/test/java/resources/Urbuddi_data.xlsx
@@ -146,22 +146,22 @@
     <t>HR</t>
   </si>
   <si>
-    <t>OW18042</t>
-  </si>
-  <si>
     <t>OW180822</t>
   </si>
   <si>
     <t>OW180808</t>
   </si>
   <si>
-    <t>myfinaltest22@gmail.com</t>
-  </si>
-  <si>
-    <t>myfinaltest23@gmail.com</t>
-  </si>
-  <si>
-    <t>myfinaltest24@gmail.com</t>
+    <t>OW180421</t>
+  </si>
+  <si>
+    <t>myfinaltest25@gmail.com</t>
+  </si>
+  <si>
+    <t>myfinaltest26@gmail.com</t>
+  </si>
+  <si>
+    <t>myfinaltest27@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>43</v>
@@ -672,7 +672,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>44</v>
@@ -737,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>45</v>

--- a/src/test/java/resources/Urbuddi_data.xlsx
+++ b/src/test/java/resources/Urbuddi_data.xlsx
@@ -152,16 +152,16 @@
     <t>OW180808</t>
   </si>
   <si>
-    <t>OW180421</t>
-  </si>
-  <si>
-    <t>myfinaltest25@gmail.com</t>
-  </si>
-  <si>
-    <t>myfinaltest26@gmail.com</t>
-  </si>
-  <si>
-    <t>myfinaltest27@gmail.com</t>
+    <t>mygittest25@gmail.com</t>
+  </si>
+  <si>
+    <t>OW181136</t>
+  </si>
+  <si>
+    <t>mygittest26@gmail.com</t>
+  </si>
+  <si>
+    <t>mygittest27@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +607,10 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>

--- a/src/test/java/resources/Urbuddi_data.xlsx
+++ b/src/test/java/resources/Urbuddi_data.xlsx
@@ -146,22 +146,22 @@
     <t>HR</t>
   </si>
   <si>
-    <t>OW180822</t>
-  </si>
-  <si>
-    <t>OW180808</t>
-  </si>
-  <si>
-    <t>mygittest25@gmail.com</t>
-  </si>
-  <si>
-    <t>OW181136</t>
-  </si>
-  <si>
-    <t>mygittest26@gmail.com</t>
-  </si>
-  <si>
-    <t>mygittest27@gmail.com</t>
+    <t>OW1801141</t>
+  </si>
+  <si>
+    <t>OW114208</t>
+  </si>
+  <si>
+    <t>mygittest2@gmail.com</t>
+  </si>
+  <si>
+    <t>mygittest6@gmail.com</t>
+  </si>
+  <si>
+    <t>mygittest7@gmail.com</t>
+  </si>
+  <si>
+    <t>OW181421</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>42</v>
@@ -675,7 +675,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -740,7 +740,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
